--- a/BDD Incubyte.xlsx
+++ b/BDD Incubyte.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intimetecvisionsoft-my.sharepoint.com/personal/jyoti_r_dash_intimetec_com/Documents/Desktop/Test Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20A5F21-D3E1-4EC2-9643-9721C5648EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{61B26417-A31E-4A52-BDD9-054BF8BE498F}"/>
+    <workbookView windowWidth="23040" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="BDD Test Case for the Incubyte " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -38,6 +29,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navigate and Explore Incubyte Website</t>
+    </r>
+  </si>
+  <si>
     <t>As a customer
 I want to access and interact with key sections of the Incubyte website
 So that I can see customer services, success stories, and contact options.</t>
@@ -45,33 +59,44 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scenario 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> User views a customer success story
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User navigates to the 'Who We Serve' section
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -81,19 +106,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user is on the 'Customer Success' section
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the Incubyte homepage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -103,19 +128,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they click on a specific case study (e.g., Global Accessibility Success)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they click on the 'Who We Serve' link in the navigation bar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -125,19 +150,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they should see details about the transformation provided by Incubyte
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they should be taken to the 'Who We Serve' page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -147,46 +172,64 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the case study should highlight key results (e.g., The Opportunity, What We Did, The Outcome)</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they should see categories such as Financial Services, Healthcare, and Startups
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> each category should contain a brief description of the services offered</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scenario 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> User navigates to the 'Who We Serve' section
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> User views a customer success story
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -196,19 +239,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user is on the Incubyte homepage
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the 'Customer Success' section
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -218,19 +261,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they click on the 'Who We Serve' link in the navigation bar
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they click on a specific case study (e.g., Global Accessibility Success)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -240,19 +283,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they should be taken to the 'Who We Serve' page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they should see details about the transformation provided by Incubyte
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -262,32 +305,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they should see categories such as Financial Services, Healthcare, and Startups
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> each category should contain a brief description of the services offered</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the case study should highlight key results (e.g., The Opportunity, What We Did, The Outcome)</t>
     </r>
   </si>
   <si>
@@ -297,7 +318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Scenario 3:</t>
@@ -307,7 +328,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> User explores the services page
@@ -319,7 +340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -329,7 +350,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the user is on the 'Services' page (Craft New Software)
@@ -341,7 +362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -351,7 +372,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they select 'Craft New Software'
@@ -363,7 +384,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -373,7 +394,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they should see details about agile development practices, technology mastery, and expert team dynamics
@@ -385,7 +406,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -395,7 +416,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> there should be a clear call-to-action to contact or book a demo</t>
@@ -408,7 +429,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Scenario 4:</t>
@@ -418,7 +439,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Contacting Incubyte
@@ -430,7 +451,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -440,7 +461,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the user is on any page of the website
@@ -452,7 +473,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -462,7 +483,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they click on the 'Contact Us' link
@@ -474,7 +495,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -484,7 +505,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they should be redirected to the contact form
@@ -496,7 +517,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -506,7 +527,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they should see fields for entering their name, email, and message
@@ -518,7 +539,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -528,7 +549,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> submitting the form should display a confirmation message</t>
@@ -541,29 +562,29 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scenario 6:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Negative - Attempt to Access a Non-existent Blog Article
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Scenario 5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Navigate to a Blog Article
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -573,19 +594,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user manually enters an incorrect blog URL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the "Blog" page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -595,19 +616,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they try to access the page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they click on a specific article title (Ex. Working at Incubyte)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -617,10 +638,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they should see a "404 Page Not Found" error message</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they should be taken to the full blog post
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the article's title, date, and content should be displayed</t>
     </r>
   </si>
   <si>
@@ -630,29 +673,29 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Scenario 5: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Navigate to a Blog Article
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Negative - Attempt to Access a Non-existent Blog Article
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -662,19 +705,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user is on the "Blog" page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user manually enters an incorrect blog URL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -684,19 +727,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they click on a specific article title (Ex. Working at Incubyte)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they try to access the page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -706,32 +749,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they should be taken to the full blog post
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the article's title, date, and content should be displayed</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they should see a "404 Page Not Found" error message</t>
     </r>
   </si>
   <si>
@@ -741,7 +762,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Scenario 7:</t>
@@ -751,7 +772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Navigate to an About Us
@@ -763,7 +784,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -773,7 +794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the user is on the "About Us" page
@@ -785,7 +806,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -795,7 +816,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they click on specific Links on Do, We Are, We Are Not.
@@ -807,7 +828,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -817,7 +838,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they should be taken to the full blog post
@@ -829,7 +850,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -839,7 +860,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the page should contain details Guide about us.</t>
@@ -852,160 +873,292 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Feature 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Navigate and Explore Incubyte Website</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Negative - Accessing a Broken Link
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the website
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they attempt to access a broken or non-existent page (e.g., /invalid-link)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they should see a "404 - Page Not Found" error
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a link to return to the homepage should be provided</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scenario 8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Negative - Accessing a Broken Link
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user is on the website
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they attempt to access a broken or non-existent page (e.g., /invalid-link)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they should see a "404 - Page Not Found" error
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a link to return to the homepage should be provided</t>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navigate to Contact Form on Incubyte Website</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Feature 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Navigate to Contact Form on Incubyte Website</t>
-    </r>
+    <t xml:space="preserve">As a customer
+I want to consent to Incubyte Consulting LLP Team
+So that I can have a detailed discussion about the project requirements
+</t>
   </si>
   <si>
-    <t>As a customer
-I want to consent to Incubyte Consulting LLP Team
-So that I can have a detailed discussion about the project requirements</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Positive - Submitting a Valid Contact Form
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is on the 'Contact Us' page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they fill out all required fields with valid information
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> click the "Submit" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a success message should be displayed "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thank you for your interest! Our expert team will contact you soon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an email notification should be sent to the support team</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1014,29 +1167,29 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scenario 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Positive - Submitting a Valid Contact Form
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Scenario 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Negative - Submitting an Incomplete Contact Form
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -1046,7 +1199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the user is on the 'Contact Us' page
@@ -1058,7 +1211,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -1068,19 +1221,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they fill out all required fields with valid information
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they leave the email field blank
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -1090,19 +1243,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> click the "Submit" button
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attempt to submit the form
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -1112,40 +1265,19 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a success message should be displayed "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Thank you for your interest! Our expert team will contact you soon</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an error message should indicate that the email field is required
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -1155,149 +1287,40 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> an email notification should be sent to the support team</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the form submission should not proceed</t>
     </r>
   </si>
   <si>
-    <t>As a customer
-I want to Book an AI-driven platform personalized demo
-So that I can Experience the power of an AI-driven platform</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Book a Demo</t>
+    </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Scenario 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Negative - Submitting an Incomplete Contact Form
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Given:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the user is on the 'Contact Us' page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> they leave the email field blank
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> attempt to submit the form
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Then:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> an error message should indicate that the email field is required
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>And:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the form submission should not proceed</t>
-    </r>
+    <t xml:space="preserve">As a customer
+I want to Book an AI-driven platform personalized demo
+So that I can Experience the power of an AI-driven platform
+</t>
   </si>
   <si>
     <r>
@@ -1306,7 +1329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Scenario 1:</t>
@@ -1316,7 +1339,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Positive - Successfully Book a Demo
@@ -1328,7 +1351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -1338,7 +1361,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the user is on the "Book Demo" page
@@ -1350,7 +1373,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -1360,7 +1383,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they fill out all required fields with valid information
@@ -1379,7 +1402,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -1389,7 +1412,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> click the "Submit" button
@@ -1401,7 +1424,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -1411,7 +1434,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> a confirmation message should be displayed: ""Your demo has been successfully scheduled!""
@@ -1423,7 +1446,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -1433,7 +1456,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the user should receive a confirmation email
@@ -1445,7 +1468,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Validations:</t>
@@ -1455,7 +1478,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1467,7 +1490,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1.</t>
@@ -1477,7 +1500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> A confirmation message is displayed on the webpage that says "Thank you for your interest in CodeAid. Our team of experts will contact you soon!" Message populate in the Demo page."
@@ -1489,7 +1512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2.</t>
@@ -1499,7 +1522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Verify that the confirmation email is sent.
@@ -1511,7 +1534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>3.</t>
@@ -1521,7 +1544,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Ensure the demo request is saved in the database.</t>
@@ -1529,14 +1552,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Scenario 2:</t>
     </r>
     <r>
@@ -1544,7 +1559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Negative - Missing Required Fields
@@ -1556,7 +1571,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given:</t>
@@ -1566,7 +1581,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> the user is on the "Book Demo" page
@@ -1578,7 +1593,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -1588,26 +1603,26 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they leave the "Email" and "Company" fields blank
-| Name                              |    Jyoti                                                                                                                     |
-| Last Name                     |    Ranjan Dash                                                                                                   |
-| Work Email                   |    (blank)                                                                                                               |
-| Company Name          |    (blank)                                                                                                               |
-| Phone Number            |    +91 7008317193                                                                                               |
-| Preferred Date              |    2024-05-15                                                                                                        |
-| Briefly describe            |   "I am interested in exploring your agile development services." |
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+| Name                            |    Jyoti                                                                                                       |
+| Last Name                   |    Ranjan Dash                                                                                         |
+| Work Email                  |    (blank)                                                                                                   |
+| Company Name         |    (blank)                                                                                                    |
+| Phone Number           |    +91 7008317193                                                                                  |
+| Preferred Date           |    2024-05-15                                                                                            |
+| Briefly describe          |   "I am interested in exploring your agile development services." |
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -1617,7 +1632,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> click the "Submit" button
@@ -1629,7 +1644,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -1639,7 +1654,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> an error message should be displayed: "Please fill out this field.
@@ -1651,7 +1666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Validations:</t>
@@ -1661,7 +1676,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1677,30 +1692,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Feature 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Book a Demo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Scenario 3:</t>
@@ -1710,7 +1702,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Negative - Invalid Email Format
@@ -1722,7 +1714,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Given</t>
@@ -1732,7 +1724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: the user is on the "Book Demo" page
@@ -1744,7 +1736,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>When:</t>
@@ -1754,7 +1746,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> they enter an invalid email format
@@ -1767,7 +1759,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>And:</t>
@@ -1777,7 +1769,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> click the "Submit" button
@@ -1789,7 +1781,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Then:</t>
@@ -1799,7 +1791,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> an error message should be displayed: "Please include an '@' in the email address. 'invalid-email.com' is missing
@@ -1812,7 +1804,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Validations:</t>
@@ -1822,7 +1814,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1836,13 +1828,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1850,7 +1856,158 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1858,19 +2015,223 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1878,33 +2239,396 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1953,7 +2677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1986,26 +2710,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2038,23 +2745,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2216,147 +2906,174 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A167004A-F578-4A35-A62A-8C152300E914}">
-  <dimension ref="A1:B39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="81.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="97.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.71666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.71666666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.55" spans="2:2">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="16.35" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="42.15" spans="2:3">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" ht="96.6" spans="2:2">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" ht="69" spans="2:2">
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" ht="69" spans="2:2">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" ht="82.8" spans="2:2">
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" ht="69" spans="2:2">
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" ht="55.2" spans="2:2">
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" ht="69" spans="2:2">
+      <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" ht="69.75" spans="2:2">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="22" ht="14.55"/>
+    <row r="23" ht="16.35" spans="2:2">
+      <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" ht="55.95" spans="2:3">
+      <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="26" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" ht="82.8" spans="2:2">
+      <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" ht="82.8" spans="2:2">
+      <c r="B28" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="14.55"/>
+    <row r="32" ht="14.55" spans="2:2">
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="33" ht="55.95" spans="2:3">
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" ht="289.8" spans="2:2">
+      <c r="B35" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" ht="262.2" spans="2:2">
+      <c r="B37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" ht="220.8" spans="2:2">
+      <c r="B39" s="8" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/BDD Incubyte.xlsx
+++ b/BDD Incubyte.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120"/>
+    <workbookView windowWidth="23040" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BDD Test Case for the Incubyte " sheetId="1" r:id="rId1"/>
+    <sheet name="Composing and Sending an Email " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <r>
       <rPr>
@@ -1552,6 +1553,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Scenario 2:</t>
     </r>
     <r>
@@ -1823,6 +1832,591 @@
 2. Verify the field is highlighted.
 2. Submission does not proceed, and no record is created.</t>
     </r>
+  </si>
+  <si>
+    <t>BDD Test Cases for Composing and Sending an Email in Gmail</t>
+  </si>
+  <si>
+    <r>
+      <t>Objective:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that an email with the subject </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Incubyte"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the body </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"QA test for Incubyte"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is successfully composed and sent.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature: Compose and Send Email in Gmail</t>
+  </si>
+  <si>
+    <t>As a Gmail user, I want to compose and send an email with a specific subject and body so that I can ensure the email service works correctly for communication.</t>
+  </si>
+  <si>
+    <t>Scenario 1: Positive - Successfully Compose and Send an Email</t>
+  </si>
+  <si>
+    <r>
+      <t>Given:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is logged into their Gmail account</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they click the "Compose" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enter "QA@incubyte.com" in the "To" field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enter "Incubyte" in the "Subject" field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enter "QA test for Incubyte" in the email body</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> click the "Send" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Then:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the email should be sent successfully</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a confirmation message "Message sent" should appear</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Data:</t>
+  </si>
+  <si>
+    <r>
+      <t>Recipient Email:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> QA@incubyte.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Subject:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Incubyte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Body:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA test for Incubyte</t>
+    </r>
+  </si>
+  <si>
+    <t>Validations:</t>
+  </si>
+  <si>
+    <t>Verify that the email appears in the "Sent" folder.</t>
+  </si>
+  <si>
+    <t>Check the recipient's inbox to confirm the email was received.</t>
+  </si>
+  <si>
+    <t>Ensure no errors or warnings are displayed during composition or sending.</t>
+  </si>
+  <si>
+    <t>Scenario 2: Negative - Attempt to Send Email Without Recipient</t>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leave the "To" field blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attempt to click the "Send" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Then:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an error message should be displayed: "Please specify at least one recipient."</t>
+    </r>
+  </si>
+  <si>
+    <t>Ensure the "Send" button is disabled if the "To" field is empty.</t>
+  </si>
+  <si>
+    <t>Verify that an appropriate error message is displayed.</t>
+  </si>
+  <si>
+    <t>Scenario 3: Negative - Attempt to Send Email Without Subject</t>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enter "recipient@example.com" in the "To" field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leave the "Subject" field blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Then:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a warning should be displayed: "Send this message without a subject?"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user should be able to either cancel or confirm the send operation</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify the warning message appears if the subject is blank.</t>
+  </si>
+  <si>
+    <t>Confirm the email is only sent if the user chooses to proceed.</t>
+  </si>
+  <si>
+    <t>Scenario 4: Negative - Attempt to Send Email Without Body</t>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> leave the body blank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the recipient should receive an email with no body content</t>
+    </r>
+  </si>
+  <si>
+    <t>Ensure the email is sent even without body content.</t>
+  </si>
+  <si>
+    <t>Verify the email appears in the recipient's inbox with only the subject line.</t>
+  </si>
+  <si>
+    <t>Scenario 5: Negative - Network Failure During Sending</t>
+  </si>
+  <si>
+    <r>
+      <t>When:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they compose an email with the subject "Incubyte" and body "QA test for Incubyte"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the network connection is lost while clicking "Send"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Then:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an error message should be displayed: "Unable to send. Check your internet connection."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the email should be saved in the "Drafts" folder</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify the error message appears when the network is disconnected.</t>
+  </si>
+  <si>
+    <t>Ensure the email content is saved in "Drafts."</t>
+  </si>
+  <si>
+    <t>Scenario 6: Positive - Save Email as Draft</t>
+  </si>
+  <si>
+    <r>
+      <t>Given:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the user is composing an email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they enter "Incubyte" in the "Subject" field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> enter "QA test for Incubyte" in the body</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>And:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> click the "Close" button without sending</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Then:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the email should be saved in the "Drafts" folder</t>
+    </r>
+  </si>
+  <si>
+    <t>Ensure the email appears in "Drafts" with all entered content intact.</t>
+  </si>
+  <si>
+    <t>Verify that the draft can be reopened and sent later.</t>
+  </si>
+  <si>
+    <t>These BDD scenarios ensure comprehensive testing of Gmail's compose and send functionalities, covering various positive and negative cases to verify both core and edge behaviors.</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +2429,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1845,7 +2439,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14.05"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -1854,6 +2448,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -2019,7 +2621,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2028,7 +2630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2231,7 +2845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2249,6 +2863,28 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2261,8 +2897,12 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2411,76 +3051,70 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2489,10 +3123,10 @@
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2501,10 +3135,10 @@
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2513,10 +3147,10 @@
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2525,10 +3159,10 @@
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2537,22 +3171,45 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2561,16 +3218,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2914,161 +3571,161 @@
   <sheetPr/>
   <dimension ref="B1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="97.775" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.71666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.71666666666667" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="97.775" style="12" customWidth="1"/>
+    <col min="3" max="3" width="7.71666666666667" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.71666666666667" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.55" spans="2:2">
-      <c r="B1" s="2"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" ht="16.35" spans="2:2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="42.15" spans="2:3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="6"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="5" ht="96.6" spans="2:2">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="6"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" ht="69" spans="2:2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="6"/>
+      <c r="B8" s="17"/>
     </row>
     <row r="9" ht="69" spans="2:2">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="6"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" ht="82.8" spans="2:2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="6"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" ht="69" spans="2:2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="6"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" ht="55.2" spans="2:2">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="6"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" ht="69" spans="2:2">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="6"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" ht="69.75" spans="2:2">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5"/>
+      <c r="B20" s="16"/>
     </row>
     <row r="22" ht="14.55"/>
     <row r="23" ht="16.35" spans="2:2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" ht="55.95" spans="2:3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="6"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" ht="82.8" spans="2:2">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="6"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" ht="82.8" spans="2:2">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" ht="14.55"/>
     <row r="32" ht="14.55" spans="2:2">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" ht="55.95" spans="2:3">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="6"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" ht="289.8" spans="2:2">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="6"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" ht="262.2" spans="2:2">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="6"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" ht="220.8" spans="2:2">
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3076,4 +3733,478 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="126.8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="17.4" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="14.55"/>
+    <row r="13" ht="17.4" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" ht="14.55" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" ht="14.55"/>
+    <row r="38" ht="17.4" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" ht="14.55" spans="1:1">
+      <c r="A51" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" ht="14.55"/>
+    <row r="55" ht="17.4" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" ht="14.55" spans="1:1">
+      <c r="A69" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" ht="14.55"/>
+    <row r="73" ht="17.4" spans="1:1">
+      <c r="A73" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" ht="14.55" spans="1:1">
+      <c r="A87" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" ht="14.55"/>
+    <row r="91" ht="17.4" spans="1:1">
+      <c r="A91" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" ht="14.55" spans="1:1">
+      <c r="A102" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" ht="14.55"/>
+    <row r="106" ht="17.4" spans="1:1">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" ht="14.55" spans="1:1">
+      <c r="A117" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>